--- a/ruby/spec/test_data/変則リレーション.xlsx
+++ b/ruby/spec/test_data/変則リレーション.xlsx
@@ -1,21 +1,89 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11370"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="abc"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="125725"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>ワークシート</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>3</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="3" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+      <vt:lpstr>Sheet2</vt:lpstr>
+      <vt:lpstr>Sheet3</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>12.0000</AppVersion>
+</Properties>
+</file>
+
+<file path=core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>新田光宏</dc:creator>
+  <cp:lastModifiedBy>新田光宏</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2011-08-08T03:06:52Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2011-12-02T01:52:56Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
@@ -69,7 +137,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/testdir/testdir/test.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=test.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -101,7 +169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -384,47 +452,18 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11370"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="abc"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+</workbook>
 </file>